--- a/dev/fhir-ig/StructureDefinition-onconova-comorbidities.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2963,7 +2963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>179</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>220</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>243</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>247</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>261</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>271</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>286</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>303</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>312</v>
       </c>
@@ -9461,12 +9461,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP63">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-comorbidities.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-comorbidities.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-comorbidities.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-comorbidities.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
